--- a/VoelkenrathMA/query_results/GUI_Q3_results.xlsx
+++ b/VoelkenrathMA/query_results/GUI_Q3_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,5908 @@
           <t>LinkML-file</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Temperature [K]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pressure [Pa]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocity [m/s]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Turnover CO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12558&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12559&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>273</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[0.23014681776527568]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12560&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12561&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>273</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[0.23259718329292703]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12562&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12563&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>273</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[0.044358884779051935]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12564&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12565&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>273</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[0.004830918614014084]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12566&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12567&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>273</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[0.0004874166448067785]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12548&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12549&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>273</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[0.177776707328467]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12550&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12551&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>273</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[0.12414603801115795]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12552&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12553&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>273</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[0.019502329490437204]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12554&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12555&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>273</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[0.0020778802475545284]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12556&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12557&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[0.00020919639891033847]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12568&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12569&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>273</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[0.16321195815478162]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12570&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12571&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>273</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[0.08695620560800271]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12572&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12573&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>273</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[0.012082021653477862]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12574&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12575&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>273</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[0.001262768759282902]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12576&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12577&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>273</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[0.0001268632481160282]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12578&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12579&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>273</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[0.15873820169794567]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12580&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12581&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>273</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[0.06723354200132431]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12582&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12583&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>273</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[0.008716125995518529]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12584&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12585&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>273</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[0.0009012829222237775]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12586&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12587&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>273</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[9.044193084693839e-05]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12588&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12589&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>273</v>
+      </c>
+      <c r="F22" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[0.20329455471627486]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12590&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12591&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>273</v>
+      </c>
+      <c r="F23" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[0.16212319337533213]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12592&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12593&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>273</v>
+      </c>
+      <c r="F24" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[0.028153611853855606]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12594&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12595&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>273</v>
+      </c>
+      <c r="F25" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[0.0030447103230539434]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12596&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12597&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>273</v>
+      </c>
+      <c r="F26" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[0.0003070367452817648]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12608&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12609&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>373</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[0.23138978731414508]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12610&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12611&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>373</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[0.2588753192244487]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12612&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12613&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>373</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[0.05869527594203383]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12614&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12615&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>373</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[0.0065832616034620615]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12616&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12617&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>373</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[0.0006663845705676323]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12598&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12599&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>373</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[0.17621758665566117]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12600&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12601&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>373</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[0.1467166795253168]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12602&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12603&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>373</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[0.026254284666254592]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12604&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12605&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>373</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[0.0028594758090456653]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12606&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12607&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>373</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[0.0002886180585539339]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12618&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12619&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>373</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[0.16010320431582917]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12620&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12621&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>373</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[0.10781765647506417]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12622&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12623&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>373</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[0.01653481955589131]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12624&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12625&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>373</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[0.0017563976876192509]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12626&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12627&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>373</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[0.00017677501738765222]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12628&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12629&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>373</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[0.08598404694069393]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12630&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12631&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>373</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[0.012089465824510919]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12632&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12633&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>373</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[0.0012663165686579705]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12634&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12635&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>373</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[0.00012725112839382443]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12636&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12637&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>373</v>
+      </c>
+      <c r="F46" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[0.20290272014198224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12638&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12639&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>373</v>
+      </c>
+      <c r="F47" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[0.18525210802793085]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12640&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12641&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>373</v>
+      </c>
+      <c r="F48" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[0.03751924789381805]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12642&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12643&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>373</v>
+      </c>
+      <c r="F49" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[0.00416654769969396]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_373.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12644&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12645&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>373</v>
+      </c>
+      <c r="F50" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[0.00042146869557606364]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12654&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12655&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>473</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[0.23290879048605836]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12656&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12657&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>473</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[0.2731586343988537]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12658&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12659&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>473</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[0.07210238540021913]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12660&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12661&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>473</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[0.00832097507697622]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12662&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12663&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>473</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[0.0008450148216933831]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12646&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12647&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>473</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[0.16169439947224173]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12648&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12649&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>473</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[0.03262367064206487]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12650&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12651&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>473</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[0.0036279177848004647]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12652&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12653&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>473</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[0.00036709567694724203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12664&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12665&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>473</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[0.15868398489028737]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12666&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12667&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>473</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[0.12351981526015329]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12668&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12669&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>473</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[0.020741749012164964]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12670&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12671&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>473</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[0.0022372252368765885]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12672&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12673&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>473</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[0.0002255657400788596]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12674&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12675&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>473</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[0.15342119937482365]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12676&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12677&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>473</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[0.10089765736980702]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12678&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12679&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>473</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[0.015265927554187065]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12680&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12681&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>473</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[0.001618515727933115]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12682&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12683&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>473</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[0.00016286406627644094]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12684&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12685&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>473</v>
+      </c>
+      <c r="F70" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[0.20363150061918026]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12686&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12687&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>473</v>
+      </c>
+      <c r="F71" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[0.19891433092604868]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12688&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12689&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>473</v>
+      </c>
+      <c r="F72" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[0.04631430423462268]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12690&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12691&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>473</v>
+      </c>
+      <c r="F73" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[0.005274366398971518]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12692&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12693&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>473</v>
+      </c>
+      <c r="F74" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[0.0005351653996562235]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12704&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12705&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>573</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[0.23432293858531103]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12706&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12707&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>573</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[0.2805054738691433]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12708&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12709&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>573</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[0.0846670840905251]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12710&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12711&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>573</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[0.010045335761376903]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12712&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12713&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>573</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[0.0010234223911314104]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12694&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12695&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>573</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[0.1766715679000702]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12696&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12697&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>573</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[0.1714987985207375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12698&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12699&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>573</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[0.03868408736191441]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12700&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12701&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>573</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[0.004388289072228355]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12702&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12703&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>573</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[0.0004451336031160926]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12714&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12715&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>573</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[0.15821403594955052]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12716&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12717&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>573</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[0.13542125948337413]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12718&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12719&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>573</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>[0.024773416907022842]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12720&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12721&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>573</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>[0.0027115041923196194]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12722&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12723&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>573</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>[0.00027385989464797473]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12724&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12725&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>573</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>[0.15216285456201337]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12726&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12727&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>573</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>[0.11299289135782435]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12728&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12729&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>573</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>[0.018316961708502007]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12730&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12731&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>573</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[0.001964665925862491]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12732&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12733&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>573</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>[0.0001979592281956798]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12734&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12735&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>573</v>
+      </c>
+      <c r="F95" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>[0.204654504237902]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12736&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12737&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>573</v>
+      </c>
+      <c r="F96" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>[0.2066891665449338]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12738&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12739&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>573</v>
+      </c>
+      <c r="F97" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>[0.05462033613516611]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12740&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12741&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>573</v>
+      </c>
+      <c r="F98" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>[0.006371913344057098]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12742&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12743&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>573</v>
+      </c>
+      <c r="F99" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>[0.0006484925792729547]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12754&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12755&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>673</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>[0.2355665505944714]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12756&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12757&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>673</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>[0.2838630835136023]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12758&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12759&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>673</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>[0.09646011247684003]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12760&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12761&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>673</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>[0.011756913668819159]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12762&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12763&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>673</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>[0.0012016517014853353]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12744&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12745&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>673</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>[0.17737203886152383]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12746&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12747&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>673</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>[0.17776356751225877]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12748&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12749&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>673</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>[0.044474552539985224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12750&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12751&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>673</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>[0.005142533133996306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12752&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12753&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>673</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>[0.0005229219596735148]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12764&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12765&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>673</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>[0.15823396937187098]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12766&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12767&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>673</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>[0.14440412996647278]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12768&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12769&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>673</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>[0.028660341395908145]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12770&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12771&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>673</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>[0.0031815460573201507]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12772&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12773&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>673</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>[0.00032188750659942574]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12774&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12775&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>673</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>[0.15154707088243985]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12776&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12777&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>673</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>[0.12283613122779947]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12778&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12779&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>673</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>[0.021270599082333225]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12780&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12781&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>673</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>[0.0023072191225911964]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12782&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12783&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>673</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>[0.0002327814509413335]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12784&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12785&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>673</v>
+      </c>
+      <c r="F120" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>[0.20570498620017827]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12786&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12787&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>673</v>
+      </c>
+      <c r="F121" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>[0.21083239361513376]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12788&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12789&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>673</v>
+      </c>
+      <c r="F122" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>[0.06248926434008289]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12790&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12791&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>673</v>
+      </c>
+      <c r="F123" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>[0.007460675583026261]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_673.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12792&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12793&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>673</v>
+      </c>
+      <c r="F124" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>[0.0007615898603872785]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12804&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12805&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>773</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>[0.23664857573197381]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12806&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12807&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>773</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>[0.28495758952714206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12808&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12809&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>773</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>[0.10754214344116074]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12810&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12811&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>773</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>[0.013456038678780369]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12812&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12813&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>773</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>[0.0013797233106551123]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12794&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12795&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>773</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>[0.17811706752593276]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12796&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12797&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>773</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>[0.1816207009609168]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12798&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12799&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>773</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>[0.05002102619677241]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12800&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12801&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>773</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>[0.005891563817232453]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12802&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12803&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>773</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>[0.0006005478359163429]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12814&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12815&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>773</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>[0.15850220940282858]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12816&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12817&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>773</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>[0.15112800597711534]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12818&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12819&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>773</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>[0.032419758341439744]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12820&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12821&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>773</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>[0.0036484096446826333]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12822&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12823&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>773</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>[0.00036975321955866244]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12824&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12825&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>773</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>[0.15132742044521744]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12826&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12827&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>773</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>[0.13083182385072206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12828&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12829&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>773</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>[0.024141231132857516]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12830&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12831&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>773</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>[0.00264728745002021]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12832&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12833&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>773</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>[0.00026744149007120073]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12834&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12835&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>773</v>
+      </c>
+      <c r="F145" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>[0.20669701235908666]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12836&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12837&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>773</v>
+      </c>
+      <c r="F146" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>[0.21276299232570142]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12838&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12839&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>773</v>
+      </c>
+      <c r="F147" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>[0.0699597469688136]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12840&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12841&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>773</v>
+      </c>
+      <c r="F148" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>[0.008541385659373367]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_773.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12842&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12843&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>773</v>
+      </c>
+      <c r="F149" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>[0.0008745214771720967]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12854&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12855&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>873</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>[0.2375932578087061]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12856&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12857&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>873</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>[0.2848014576007344]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12858&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12859&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>873</v>
+      </c>
+      <c r="F152" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>[0.11796635455796628]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12860&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12861&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>873</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>[0.015142940833853497]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12862&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12863&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>873</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>[0.001557647959062756]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12844&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12845&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>873</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>[0.17884627701261288]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12846&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12847&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>873</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>[0.18385303115454188]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12848&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12849&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>873</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>[0.05534295997654484]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12850&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12851&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>873</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>[0.006635875730947079]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12852&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12853&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>873</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>[0.0006780563985212063]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12864&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12865&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>873</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>[0.15889221753483546]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12866&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12867&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>873</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>[0.1561055225039149]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12868&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12869&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>873</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>[0.03606315877541686]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12870&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12871&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>873</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>[0.004112649526679374]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12872&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12873&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>873</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>[0.00041751120477955174]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12874&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12875&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>873</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>[0.15134767887119088]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12876&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12877&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>873</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>[0.13730040642246522]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12878&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12879&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>873</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>[0.026937646721185596]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12880&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12881&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>873</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>[0.002985448693867088]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12882&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12883&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>873</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>[0.00030199662074585653]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12884&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12885&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>873</v>
+      </c>
+      <c r="F170" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>[0.20760728076487292]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12886&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12887&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>873</v>
+      </c>
+      <c r="F171" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>[0.21336799933618103]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12888&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12889&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>873</v>
+      </c>
+      <c r="F172" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>[0.07706272979571419]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12890&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12891&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>873</v>
+      </c>
+      <c r="F173" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>[0.009614466335390752]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_873.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12892&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12893&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>873</v>
+      </c>
+      <c r="F174" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>[0.0009873208053448588]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
